--- a/LSI Evaluation.xlsx
+++ b/LSI Evaluation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hester/Desktop/finalYearProject/documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanyewu/Desktop/Final-Year-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,90 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>os</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fibonacci</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cluster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>naïve_bayes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regresion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>euclidean distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entropy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>database</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tensorflow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vggish_slim.define_vggish_slim()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>random.randint()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_provider.provide_data()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hashlib.md5()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Precision@10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>numpy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -54,7 +138,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>os</t>
+    <t>graph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PANDAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remove</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -66,30 +158,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>parsing tree</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>graph</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>map reduce</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PANDAS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remove</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,87 +190,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>recursion</t>
+    <t>socket</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>binary search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fibonacci</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cluster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>naïve_bayes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KNN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>regresion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CNN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>euclidean distance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>entropy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>database</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MPI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SVD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LSA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tensorflow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vggish_slim.define_vggish_slim()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>random.randint()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data_provider.provide_data()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hashlib.md5()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Precision@10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" x14ac:dyDescent="0.3"/>
@@ -563,208 +563,334 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
+      </c>
+      <c r="B2" s="2">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
+      </c>
+      <c r="B3" s="2">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
+      </c>
+      <c r="B4" s="2">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
+      </c>
+      <c r="B5" s="2">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
+      </c>
+      <c r="B6" s="2">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2">
         <v>10</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
+      </c>
+      <c r="B9" s="2">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
+      </c>
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
+      </c>
+      <c r="B12" s="2">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.7</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
+      </c>
+      <c r="B14" s="2">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.8</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>34</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="B16" s="2">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="B17" s="2">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="B19" s="2">
+        <v>10</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="B22" s="2">
+        <v>10</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/LSI Evaluation.xlsx
+++ b/LSI Evaluation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>query</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,6 +38,122 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>SVD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tensorflow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vggish_slim.define_vggish_slim()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>random.randint()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_provider.provide_data()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hashlib.md5()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Precision@10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numpy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scipy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sklearn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>graph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parsing tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>append</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>socket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>binary search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insertion sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heap sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>matplotlib.pyplot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map reduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merge sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PANDAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>fibonacci</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -46,7 +162,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>naïve_bayes</t>
+    <t>notes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tensorflow also returned</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -54,7 +174,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>regresion</t>
+    <t>regression</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -70,7 +190,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>database</t>
+    <t>database connection</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -78,123 +198,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>naïve bayes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>PCA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SVD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LSA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tensorflow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vggish_slim.define_vggish_slim()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>random.randint()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data_provider.provide_data()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hashlib.md5()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Precision@10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numpy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>scipy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sklearn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>graph</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PANDAS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remove</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merge sort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parsing tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>map reduce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>append</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>matplotlib.pyplot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>redis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insertion sort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heap sort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>socket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>binary search</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" x14ac:dyDescent="0.3"/>
@@ -552,7 +560,8 @@
     <col min="1" max="1" width="46" style="1" customWidth="1"/>
     <col min="2" max="2" width="63.1640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="45.33203125" style="2" customWidth="1"/>
-    <col min="4" max="7" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="44.83203125" style="2" customWidth="1"/>
+    <col min="5" max="7" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -563,13 +572,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2">
         <v>10</v>
@@ -580,7 +592,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2">
         <v>6</v>
@@ -591,7 +603,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2">
         <v>8</v>
@@ -602,7 +614,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2">
         <v>10</v>
@@ -613,7 +625,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2">
         <v>10</v>
@@ -635,7 +647,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2">
         <v>10</v>
@@ -646,7 +658,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2">
         <v>10</v>
@@ -657,18 +669,18 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B10" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2">
         <v>10</v>
@@ -679,7 +691,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2">
         <v>7</v>
@@ -690,18 +702,18 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C13" s="2">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2">
         <v>8</v>
@@ -712,7 +724,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2">
         <v>3</v>
@@ -723,7 +735,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B16" s="2">
         <v>8</v>
@@ -732,165 +744,228 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="2">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="2">
+        <v>10</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="2">
+        <v>10</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="2">
+        <v>9</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="2">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="2">
+        <v>10</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="2">
+        <v>6</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="2">
-        <v>10</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="B27" s="2">
+        <v>8</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="2">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="B28" s="2">
+        <v>10</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="2">
-        <v>10</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="B29" s="2">
+        <v>10</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="2">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="B30" s="2">
+        <v>3</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="B31" s="2">
+        <v>10</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="2">
-        <v>10</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="B32" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>11</v>
+      <c r="C32" s="2">
+        <v>0.9</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/LSI Evaluation.xlsx
+++ b/LSI Evaluation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>query</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,11 +38,163 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Precision@10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numpy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scipy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sklearn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>graph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parsing tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>append</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>socket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>binary search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insertion sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heap sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>matplotlib.pyplot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map reduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merge sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PANDAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fibonacci</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cluster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tensorflow also returned</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regression</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>euclidean distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entropy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>database connection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>naïve bayes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>singleton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>also returns AlphaGo projects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>SVD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LSA</t>
+    <t>svd frequently appers in "_future_" project and other programs within this project are returned as well</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data training</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tensorflow also returned</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -63,146 +215,6 @@
   </si>
   <si>
     <t>hashlib.md5()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Precision@10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numpy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>scipy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sklearn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>graph</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remove</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parsing tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>append</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>socket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>binary search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insertion sort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>redis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heap sort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>matplotlib.pyplot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>map reduce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merge sort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PANDAS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fibonacci</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cluster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tensorflow also returned</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KNN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>regression</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CNN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>euclidean distance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>entropy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>database connection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MPI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>naïve bayes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -267,11 +279,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -549,18 +564,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="46" style="1" customWidth="1"/>
-    <col min="2" max="2" width="63.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="45.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="44.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13" style="2" customWidth="1"/>
+    <col min="4" max="4" width="72.5" style="4" customWidth="1"/>
     <col min="5" max="7" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -572,16 +587,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>34</v>
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2">
         <v>10</v>
@@ -592,7 +607,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2">
         <v>6</v>
@@ -603,7 +618,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2">
         <v>8</v>
@@ -614,7 +629,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2">
         <v>10</v>
@@ -625,7 +640,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2">
         <v>10</v>
@@ -647,7 +662,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2">
         <v>10</v>
@@ -658,7 +673,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2">
         <v>10</v>
@@ -669,7 +684,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2">
         <v>10</v>
@@ -680,7 +695,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2">
         <v>10</v>
@@ -691,7 +706,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2">
         <v>7</v>
@@ -702,7 +717,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2">
         <v>4</v>
@@ -713,7 +728,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2">
         <v>8</v>
@@ -724,7 +739,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2">
         <v>3</v>
@@ -735,7 +750,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2">
         <v>8</v>
@@ -746,7 +761,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2">
         <v>10</v>
@@ -757,7 +772,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B18" s="2">
         <v>10</v>
@@ -768,7 +783,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2">
         <v>10</v>
@@ -779,7 +794,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
         <v>2</v>
@@ -790,7 +805,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2">
         <v>2</v>
@@ -801,7 +816,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B22" s="2">
         <v>10</v>
@@ -812,7 +827,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B23" s="2">
         <v>9</v>
@@ -823,7 +838,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2">
         <v>3</v>
@@ -834,7 +849,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2">
         <v>10</v>
@@ -845,7 +860,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2">
         <v>6</v>
@@ -853,13 +868,13 @@
       <c r="C26" s="2">
         <v>0.6</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>35</v>
+      <c r="D26" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B27" s="2">
         <v>8</v>
@@ -870,7 +885,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2">
         <v>10</v>
@@ -881,7 +896,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B29" s="2">
         <v>10</v>
@@ -892,7 +907,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B30" s="2">
         <v>3</v>
@@ -903,7 +918,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B31" s="2">
         <v>10</v>
@@ -914,7 +929,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2">
         <v>9</v>
@@ -923,49 +938,118 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="2">
+        <v>10</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="2">
+        <v>8</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="2">
+        <v>5</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="B38" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C38" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>9</v>
+        <v>47</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C42" s="2">
+        <f>AVERAGE(C2:C41)</f>
+        <v>0.80750000000000011</v>
       </c>
     </row>
   </sheetData>

--- a/LSI Evaluation.xlsx
+++ b/LSI Evaluation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -26,22 +26,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
-    <t>query</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">number of relevant results in top 10 results </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>os</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Precision@10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tree</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,35 +174,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>data training</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tensorflow also returned</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tensorflow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vggish_slim.define_vggish_slim()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>random.randint()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_provider.provide_data()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hashlib.md5()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Relevant Docs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>svd frequently appers in "_future_" project and other programs within this project are returned as well</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>data training</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tensorflow also returned</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tensorflow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vggish_slim.define_vggish_slim()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>random.randint()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data_provider.provide_data()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hashlib.md5()</t>
+    <t>P@10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -222,7 +222,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -252,11 +252,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri (正文)"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="2">
@@ -276,20 +292,55 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="13">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -564,493 +615,532 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G42"/>
+  <dimension ref="B1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13" style="2" customWidth="1"/>
-    <col min="4" max="4" width="72.5" style="4" customWidth="1"/>
-    <col min="5" max="7" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="19.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21" style="5" customWidth="1"/>
+    <col min="6" max="8" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="2:6" ht="26" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="7">
+        <v>10</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="2:6" ht="26" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7">
+        <v>6</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="2:6" ht="26" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="7">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="2:6" ht="26" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="2:6" ht="26" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="7">
+        <v>10</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="2:6" ht="26" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="C7" s="7">
+        <v>9</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="2:6" ht="26" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>10</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="2:6" ht="26" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7">
+        <v>10</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="2:6" ht="26" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="7">
+        <v>10</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="2:6" ht="26" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="7">
+        <v>10</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="2:6" ht="26" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="7">
+        <v>7</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:6" ht="26" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="7">
+        <v>4</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="2:6" ht="26" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="7">
+        <v>8</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:6" ht="26" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="7">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D15" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:6" ht="26" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="7">
+        <v>8</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="2:5" ht="26" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="7">
+        <v>10</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="2:5" ht="26" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="7">
+        <v>10</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="2:5" ht="26" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="7">
+        <v>10</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="2:5" ht="26" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="7">
+        <v>2</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="2:5" ht="26" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="7">
+        <v>2</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="2:5" ht="26" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="7">
+        <v>10</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="2:5" ht="26" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="7">
+        <v>9</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="2:5" ht="26" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="7">
+        <v>3</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="2:5" ht="26" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="7">
+        <v>10</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="2:5" ht="50" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="7">
+        <v>6</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="26" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="7">
+        <v>8</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="2:5" ht="26" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="C28" s="7">
+        <v>10</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="2:5" ht="26" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="7">
+        <v>10</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="2:5" ht="26" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="7">
+        <v>3</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="2:5" ht="26" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="7">
+        <v>10</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="2:5" ht="26" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="7">
+        <v>9</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="2:5" ht="26" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="7">
+        <v>10</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="2:5" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="7">
+        <v>8</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="7">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2">
-        <v>10</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="2">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2">
-        <v>7</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="2">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>8</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="2">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2">
-        <v>8</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2">
-        <v>10</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="2">
-        <v>10</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="2">
-        <v>10</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2">
-        <v>2</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2">
-        <v>2</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="2">
-        <v>10</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="2">
-        <v>9</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="2">
-        <v>3</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="2">
-        <v>10</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="2">
-        <v>6</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="2">
-        <v>8</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="2">
-        <v>10</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="2">
-        <v>10</v>
-      </c>
-      <c r="C29" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="2">
-        <v>3</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="2">
-        <v>10</v>
-      </c>
-      <c r="C31" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="2">
-        <v>9</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="2">
-        <v>10</v>
-      </c>
-      <c r="C33" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="D35" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="50" x14ac:dyDescent="0.25">
+      <c r="B36" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="2">
-        <v>8</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="D34" s="4" t="s">
+      <c r="C36" s="7">
+        <v>1</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+    <row r="37" spans="2:5" ht="26" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="2">
+      <c r="C37" s="7">
+        <v>1</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1</v>
+      </c>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="2:5" ht="26" x14ac:dyDescent="0.25">
+      <c r="B38" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="7">
         <v>5</v>
       </c>
-      <c r="C35" s="2">
+      <c r="D38" s="7">
         <v>0.5</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="2:5" ht="26" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="2">
-        <v>1</v>
-      </c>
-      <c r="C36" s="2">
-        <v>1</v>
-      </c>
-      <c r="D36" s="4" t="s">
+      <c r="C39" s="7">
+        <v>1</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1</v>
+      </c>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="2:5" ht="26" x14ac:dyDescent="0.25">
+      <c r="B40" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="C40" s="7">
+        <v>1</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1</v>
+      </c>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="2:5" ht="26" x14ac:dyDescent="0.25">
+      <c r="B41" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="2">
-        <v>1</v>
-      </c>
-      <c r="C37" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="2">
-        <v>5</v>
-      </c>
-      <c r="C38" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="2">
-        <v>1</v>
-      </c>
-      <c r="C39" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="2">
-        <v>1</v>
-      </c>
-      <c r="C40" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" s="2">
-        <v>1</v>
-      </c>
-      <c r="C41" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C42" s="2">
-        <f>AVERAGE(C2:C41)</f>
+      <c r="C41" s="7">
+        <v>1</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="2:5" ht="26" x14ac:dyDescent="0.25">
+      <c r="B42" s="6"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7">
+        <f>AVERAGE(D2:D41)</f>
         <v>0.80750000000000011</v>
       </c>
+      <c r="E42" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
